--- a/log_forward_backward/backward_report.xlsx
+++ b/log_forward_backward/backward_report.xlsx
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>4096</v>
@@ -490,13 +490,13 @@
         <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>755.3099999999999</v>
+        <v>782.9299999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>1360.81</v>
+        <v>3060.78</v>
       </c>
       <c r="G2" t="n">
-        <v>1509.44</v>
+        <v>1354.54</v>
       </c>
     </row>
     <row r="3">
@@ -504,7 +504,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>4096</v>
@@ -513,13 +513,13 @@
         <v>96</v>
       </c>
       <c r="E3" t="n">
-        <v>1258.16</v>
+        <v>754.29</v>
       </c>
       <c r="F3" t="n">
-        <v>2290.4</v>
+        <v>3573.93</v>
       </c>
       <c r="G3" t="n">
-        <v>1404.57</v>
+        <v>1481.45</v>
       </c>
     </row>
     <row r="4">
@@ -527,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>4096</v>
@@ -536,13 +536,13 @@
         <v>128</v>
       </c>
       <c r="E4" t="n">
-        <v>1065.87</v>
+        <v>757.21</v>
       </c>
       <c r="F4" t="n">
-        <v>2368.84</v>
+        <v>3394.57</v>
       </c>
       <c r="G4" t="n">
-        <v>1287.13</v>
+        <v>3357.71</v>
       </c>
     </row>
     <row r="5">
@@ -550,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>8192</v>
@@ -559,13 +559,13 @@
         <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>781.91</v>
+        <v>745.74</v>
       </c>
       <c r="F5" t="n">
-        <v>2651.28</v>
+        <v>3378.63</v>
       </c>
       <c r="G5" t="n">
-        <v>2156.69</v>
+        <v>2683.41</v>
       </c>
     </row>
     <row r="6">
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>8192</v>
@@ -582,13 +582,13 @@
         <v>96</v>
       </c>
       <c r="E6" t="n">
-        <v>2013.27</v>
+        <v>773.03</v>
       </c>
       <c r="F6" t="n">
-        <v>3424.69</v>
+        <v>7584.95</v>
       </c>
       <c r="G6" t="n">
-        <v>2543.75</v>
+        <v>3785.89</v>
       </c>
     </row>
     <row r="7">
@@ -596,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>8192</v>
@@ -605,13 +605,13 @@
         <v>128</v>
       </c>
       <c r="E7" t="n">
-        <v>1350</v>
+        <v>793.86</v>
       </c>
       <c r="F7" t="n">
-        <v>3349.94</v>
+        <v>3999.83</v>
       </c>
       <c r="G7" t="n">
-        <v>2509.21</v>
+        <v>3756.01</v>
       </c>
     </row>
     <row r="8">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>16384</v>
@@ -628,13 +628,13 @@
         <v>64</v>
       </c>
       <c r="E8" t="n">
-        <v>1040.86</v>
+        <v>894.8</v>
       </c>
       <c r="F8" t="n">
-        <v>4722.72</v>
+        <v>5222.33</v>
       </c>
       <c r="G8" t="n">
-        <v>3654.17</v>
+        <v>7877.93</v>
       </c>
     </row>
     <row r="9">
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>16384</v>
@@ -651,13 +651,13 @@
         <v>96</v>
       </c>
       <c r="E9" t="n">
-        <v>954.74</v>
+        <v>1124.19</v>
       </c>
       <c r="F9" t="n">
-        <v>5430.52</v>
+        <v>5875.63</v>
       </c>
       <c r="G9" t="n">
-        <v>7054.29</v>
+        <v>10928.82</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>16384</v>
@@ -674,13 +674,13 @@
         <v>128</v>
       </c>
       <c r="E10" t="n">
-        <v>1340.62</v>
+        <v>1208.53</v>
       </c>
       <c r="F10" t="n">
-        <v>5595.41</v>
+        <v>6029.12</v>
       </c>
       <c r="G10" t="n">
-        <v>6225.32</v>
+        <v>10561.03</v>
       </c>
     </row>
     <row r="11">
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
         <v>32768</v>
@@ -697,13 +697,13 @@
         <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>2015.46</v>
+        <v>1617.34</v>
       </c>
       <c r="F11" t="n">
-        <v>13350.14</v>
+        <v>11465.01</v>
       </c>
       <c r="G11" t="n">
-        <v>11276.34</v>
+        <v>17998.48</v>
       </c>
     </row>
     <row r="12">
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>32768</v>
@@ -720,13 +720,13 @@
         <v>96</v>
       </c>
       <c r="E12" t="n">
-        <v>3532.06</v>
+        <v>1978</v>
       </c>
       <c r="F12" t="n">
-        <v>12874.73</v>
+        <v>11732.24</v>
       </c>
       <c r="G12" t="n">
-        <v>22338.07</v>
+        <v>42743.14</v>
       </c>
     </row>
     <row r="13">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>32768</v>
@@ -743,13 +743,13 @@
         <v>128</v>
       </c>
       <c r="E13" t="n">
-        <v>1710.85</v>
+        <v>2131.34</v>
       </c>
       <c r="F13" t="n">
-        <v>10944.46</v>
+        <v>11825.38</v>
       </c>
       <c r="G13" t="n">
-        <v>21714.07</v>
+        <v>42496.56</v>
       </c>
     </row>
     <row r="14">
@@ -757,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>65536</v>
@@ -766,13 +766,13 @@
         <v>64</v>
       </c>
       <c r="E14" t="n">
-        <v>3427.42</v>
+        <v>2906.78</v>
       </c>
       <c r="F14" t="n">
-        <v>18697.12</v>
+        <v>19664.03</v>
       </c>
       <c r="G14" t="n">
-        <v>36911.5</v>
+        <v>74065.35000000001</v>
       </c>
     </row>
     <row r="15">
@@ -780,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>65536</v>
@@ -789,13 +789,13 @@
         <v>96</v>
       </c>
       <c r="E15" t="n">
-        <v>3380.78</v>
+        <v>3622.87</v>
       </c>
       <c r="F15" t="n">
-        <v>22099.08</v>
+        <v>21715.06</v>
       </c>
       <c r="G15" t="n">
-        <v>88454.03999999999</v>
+        <v>182930.06</v>
       </c>
     </row>
     <row r="16">
@@ -803,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
         <v>65536</v>
@@ -812,13 +812,13 @@
         <v>128</v>
       </c>
       <c r="E16" t="n">
-        <v>3201.62</v>
+        <v>4005.64</v>
       </c>
       <c r="F16" t="n">
-        <v>22783.43</v>
+        <v>24627.72</v>
       </c>
       <c r="G16" t="n">
-        <v>88567.53</v>
+        <v>184699.95</v>
       </c>
     </row>
     <row r="17">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
         <v>131072</v>
@@ -835,13 +835,13 @@
         <v>64</v>
       </c>
       <c r="E17" t="n">
-        <v>6711.47</v>
+        <v>5578.28</v>
       </c>
       <c r="F17" t="n">
-        <v>38140.03</v>
+        <v>38019.22</v>
       </c>
       <c r="G17" t="n">
-        <v>152341.51</v>
+        <v>302310.49</v>
       </c>
     </row>
     <row r="18">
@@ -849,7 +849,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
         <v>131072</v>
@@ -858,13 +858,13 @@
         <v>96</v>
       </c>
       <c r="E18" t="n">
-        <v>7749.36</v>
+        <v>7047.1</v>
       </c>
       <c r="F18" t="n">
-        <v>41697.72</v>
+        <v>43949.42</v>
       </c>
       <c r="G18" t="n">
-        <v>358293.33</v>
+        <v>723832.12</v>
       </c>
     </row>
     <row r="19">
@@ -872,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
         <v>131072</v>
@@ -881,13 +881,13 @@
         <v>128</v>
       </c>
       <c r="E19" t="n">
-        <v>6685.98</v>
+        <v>7625.06</v>
       </c>
       <c r="F19" t="n">
-        <v>43157.47</v>
+        <v>47463.01</v>
       </c>
       <c r="G19" t="n">
-        <v>356403.24</v>
+        <v>724669.17</v>
       </c>
     </row>
     <row r="20">
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
         <v>4096</v>
@@ -904,13 +904,13 @@
         <v>64</v>
       </c>
       <c r="E20" t="n">
-        <v>791.64</v>
+        <v>890.79</v>
       </c>
       <c r="F20" t="n">
-        <v>3060.78</v>
+        <v>3390.81</v>
       </c>
       <c r="G20" t="n">
-        <v>1354.54</v>
+        <v>1562.07</v>
       </c>
     </row>
     <row r="21">
@@ -918,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
         <v>4096</v>
@@ -927,13 +927,13 @@
         <v>96</v>
       </c>
       <c r="E21" t="n">
-        <v>1202.3</v>
+        <v>789.55</v>
       </c>
       <c r="F21" t="n">
-        <v>3573.93</v>
+        <v>2217.91</v>
       </c>
       <c r="G21" t="n">
-        <v>1481.45</v>
+        <v>2412.76</v>
       </c>
     </row>
     <row r="22">
@@ -941,7 +941,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
         <v>4096</v>
@@ -950,13 +950,13 @@
         <v>128</v>
       </c>
       <c r="E22" t="n">
-        <v>932.3099999999999</v>
+        <v>697.3200000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>3394.57</v>
+        <v>2116.94</v>
       </c>
       <c r="G22" t="n">
-        <v>3357.71</v>
+        <v>3393.13</v>
       </c>
     </row>
     <row r="23">
@@ -964,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
         <v>8192</v>
@@ -973,13 +973,13 @@
         <v>64</v>
       </c>
       <c r="E23" t="n">
-        <v>2149.34</v>
+        <v>780.9</v>
       </c>
       <c r="F23" t="n">
-        <v>3378.63</v>
+        <v>3028.41</v>
       </c>
       <c r="G23" t="n">
-        <v>2683.41</v>
+        <v>3988.03</v>
       </c>
     </row>
     <row r="24">
@@ -987,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C24" t="n">
         <v>8192</v>
@@ -996,13 +996,13 @@
         <v>96</v>
       </c>
       <c r="E24" t="n">
-        <v>908.79</v>
+        <v>873.9299999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>7584.95</v>
+        <v>3646.38</v>
       </c>
       <c r="G24" t="n">
-        <v>3785.89</v>
+        <v>6689.91</v>
       </c>
     </row>
     <row r="25">
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C25" t="n">
         <v>8192</v>
@@ -1019,13 +1019,13 @@
         <v>128</v>
       </c>
       <c r="E25" t="n">
-        <v>809.6799999999999</v>
+        <v>993</v>
       </c>
       <c r="F25" t="n">
-        <v>3999.83</v>
+        <v>5392.06</v>
       </c>
       <c r="G25" t="n">
-        <v>3756.01</v>
+        <v>6441.03</v>
       </c>
     </row>
     <row r="26">
@@ -1033,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C26" t="n">
         <v>16384</v>
@@ -1042,13 +1042,13 @@
         <v>64</v>
       </c>
       <c r="E26" t="n">
-        <v>889.52</v>
+        <v>1148.64</v>
       </c>
       <c r="F26" t="n">
-        <v>5222.33</v>
+        <v>5545.6</v>
       </c>
       <c r="G26" t="n">
-        <v>7877.93</v>
+        <v>10711.71</v>
       </c>
     </row>
     <row r="27">
@@ -1056,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C27" t="n">
         <v>16384</v>
@@ -1065,13 +1065,13 @@
         <v>96</v>
       </c>
       <c r="E27" t="n">
-        <v>1476.16</v>
+        <v>1450.4</v>
       </c>
       <c r="F27" t="n">
-        <v>5875.63</v>
+        <v>6464.57</v>
       </c>
       <c r="G27" t="n">
-        <v>10928.82</v>
+        <v>25427.07</v>
       </c>
     </row>
     <row r="28">
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C28" t="n">
         <v>16384</v>
@@ -1088,13 +1088,13 @@
         <v>128</v>
       </c>
       <c r="E28" t="n">
-        <v>3083.14</v>
+        <v>1641.83</v>
       </c>
       <c r="F28" t="n">
-        <v>6029.12</v>
+        <v>6923.06</v>
       </c>
       <c r="G28" t="n">
-        <v>10561.03</v>
+        <v>22551.75</v>
       </c>
     </row>
     <row r="29">
@@ -1102,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C29" t="n">
         <v>32768</v>
@@ -1111,13 +1111,13 @@
         <v>64</v>
       </c>
       <c r="E29" t="n">
-        <v>1608.19</v>
+        <v>1903.52</v>
       </c>
       <c r="F29" t="n">
-        <v>11465.01</v>
+        <v>10277.51</v>
       </c>
       <c r="G29" t="n">
-        <v>17998.48</v>
+        <v>38578.86</v>
       </c>
     </row>
     <row r="30">
@@ -1125,7 +1125,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C30" t="n">
         <v>32768</v>
@@ -1134,13 +1134,13 @@
         <v>96</v>
       </c>
       <c r="E30" t="n">
-        <v>3001.19</v>
+        <v>2588.55</v>
       </c>
       <c r="F30" t="n">
-        <v>11732.24</v>
+        <v>13703.4</v>
       </c>
       <c r="G30" t="n">
-        <v>42743.14</v>
+        <v>92336.92</v>
       </c>
     </row>
     <row r="31">
@@ -1148,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C31" t="n">
         <v>32768</v>
@@ -1157,13 +1157,13 @@
         <v>128</v>
       </c>
       <c r="E31" t="n">
-        <v>2569.88</v>
+        <v>3006.49</v>
       </c>
       <c r="F31" t="n">
-        <v>11825.38</v>
+        <v>12347.56</v>
       </c>
       <c r="G31" t="n">
-        <v>42496.56</v>
+        <v>92131.69</v>
       </c>
     </row>
     <row r="32">
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C32" t="n">
         <v>65536</v>
@@ -1180,13 +1180,13 @@
         <v>64</v>
       </c>
       <c r="E32" t="n">
-        <v>3811.91</v>
+        <v>3669.96</v>
       </c>
       <c r="F32" t="n">
-        <v>19664.03</v>
+        <v>21136.64</v>
       </c>
       <c r="G32" t="n">
-        <v>74065.35000000001</v>
+        <v>156748.52</v>
       </c>
     </row>
     <row r="33">
@@ -1194,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C33" t="n">
         <v>65536</v>
@@ -1203,13 +1203,13 @@
         <v>96</v>
       </c>
       <c r="E33" t="n">
-        <v>5433.01</v>
+        <v>4958.58</v>
       </c>
       <c r="F33" t="n">
-        <v>21715.06</v>
+        <v>24296.36</v>
       </c>
       <c r="G33" t="n">
-        <v>182930.06</v>
+        <v>380012.55</v>
       </c>
     </row>
     <row r="34">
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C34" t="n">
         <v>65536</v>
@@ -1226,13 +1226,13 @@
         <v>128</v>
       </c>
       <c r="E34" t="n">
-        <v>6868.3</v>
+        <v>5790.06</v>
       </c>
       <c r="F34" t="n">
-        <v>24627.72</v>
+        <v>26818.41</v>
       </c>
       <c r="G34" t="n">
-        <v>184699.95</v>
+        <v>383861.25</v>
       </c>
     </row>
     <row r="35">
@@ -1240,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C35" t="n">
         <v>131072</v>
@@ -1249,13 +1249,13 @@
         <v>64</v>
       </c>
       <c r="E35" t="n">
-        <v>6532.68</v>
+        <v>6974.06</v>
       </c>
       <c r="F35" t="n">
-        <v>38019.22</v>
+        <v>39000.05</v>
       </c>
       <c r="G35" t="n">
-        <v>302310.49</v>
+        <v>657327.79</v>
       </c>
     </row>
     <row r="36">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C36" t="n">
         <v>131072</v>
@@ -1272,13 +1272,13 @@
         <v>96</v>
       </c>
       <c r="E36" t="n">
-        <v>7395.71</v>
+        <v>9530.940000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>43949.42</v>
+        <v>47868.25</v>
       </c>
       <c r="G36" t="n">
-        <v>723832.12</v>
+        <v>1536831.92</v>
       </c>
     </row>
     <row r="37">
@@ -1286,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C37" t="n">
         <v>131072</v>
@@ -1295,13 +1295,13 @@
         <v>128</v>
       </c>
       <c r="E37" t="n">
-        <v>7720.56</v>
+        <v>11313.16</v>
       </c>
       <c r="F37" t="n">
-        <v>47463.01</v>
+        <v>50569.25</v>
       </c>
       <c r="G37" t="n">
-        <v>724669.17</v>
+        <v>1558449.79</v>
       </c>
     </row>
     <row r="38">
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C38" t="n">
         <v>4096</v>
@@ -1318,13 +1318,13 @@
         <v>64</v>
       </c>
       <c r="E38" t="n">
-        <v>3344.41</v>
+        <v>795.13</v>
       </c>
       <c r="F38" t="n">
-        <v>3390.81</v>
+        <v>2017.5</v>
       </c>
       <c r="G38" t="n">
-        <v>1562.07</v>
+        <v>1829.18</v>
       </c>
     </row>
     <row r="39">
@@ -1332,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C39" t="n">
         <v>4096</v>
@@ -1341,13 +1341,13 @@
         <v>96</v>
       </c>
       <c r="E39" t="n">
-        <v>761.33</v>
+        <v>681.6900000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>2217.91</v>
+        <v>2872.7</v>
       </c>
       <c r="G39" t="n">
-        <v>2412.76</v>
+        <v>2839.61</v>
       </c>
     </row>
     <row r="40">
@@ -1355,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C40" t="n">
         <v>4096</v>
@@ -1364,13 +1364,13 @@
         <v>128</v>
       </c>
       <c r="E40" t="n">
-        <v>1858.18</v>
+        <v>776.63</v>
       </c>
       <c r="F40" t="n">
-        <v>2116.94</v>
+        <v>4052.29</v>
       </c>
       <c r="G40" t="n">
-        <v>3393.13</v>
+        <v>2742.54</v>
       </c>
     </row>
     <row r="41">
@@ -1378,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C41" t="n">
         <v>8192</v>
@@ -1387,13 +1387,13 @@
         <v>64</v>
       </c>
       <c r="E41" t="n">
-        <v>2579.83</v>
+        <v>822.91</v>
       </c>
       <c r="F41" t="n">
-        <v>3028.41</v>
+        <v>4348.52</v>
       </c>
       <c r="G41" t="n">
-        <v>3988.03</v>
+        <v>4279.7</v>
       </c>
     </row>
     <row r="42">
@@ -1401,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C42" t="n">
         <v>8192</v>
@@ -1410,13 +1410,13 @@
         <v>96</v>
       </c>
       <c r="E42" t="n">
-        <v>918.64</v>
+        <v>1030.98</v>
       </c>
       <c r="F42" t="n">
-        <v>3646.38</v>
+        <v>3455.69</v>
       </c>
       <c r="G42" t="n">
-        <v>6689.91</v>
+        <v>8967.629999999999</v>
       </c>
     </row>
     <row r="43">
@@ -1424,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C43" t="n">
         <v>8192</v>
@@ -1433,13 +1433,13 @@
         <v>128</v>
       </c>
       <c r="E43" t="n">
-        <v>1460.43</v>
+        <v>1171.95</v>
       </c>
       <c r="F43" t="n">
-        <v>5392.06</v>
+        <v>3595.96</v>
       </c>
       <c r="G43" t="n">
-        <v>6441.03</v>
+        <v>8828.33</v>
       </c>
     </row>
     <row r="44">
@@ -1447,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C44" t="n">
         <v>16384</v>
@@ -1456,13 +1456,13 @@
         <v>64</v>
       </c>
       <c r="E44" t="n">
-        <v>2150.9</v>
+        <v>1288.61</v>
       </c>
       <c r="F44" t="n">
-        <v>5545.6</v>
+        <v>5379.69</v>
       </c>
       <c r="G44" t="n">
-        <v>10711.71</v>
+        <v>15228.49</v>
       </c>
     </row>
     <row r="45">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C45" t="n">
         <v>16384</v>
@@ -1479,13 +1479,13 @@
         <v>96</v>
       </c>
       <c r="E45" t="n">
-        <v>1864.4</v>
+        <v>1741.67</v>
       </c>
       <c r="F45" t="n">
-        <v>6464.57</v>
+        <v>7779.9</v>
       </c>
       <c r="G45" t="n">
-        <v>25427.07</v>
+        <v>33909.12</v>
       </c>
     </row>
     <row r="46">
@@ -1493,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C46" t="n">
         <v>16384</v>
@@ -1502,13 +1502,13 @@
         <v>128</v>
       </c>
       <c r="E46" t="n">
-        <v>3227.19</v>
+        <v>2024.96</v>
       </c>
       <c r="F46" t="n">
-        <v>6923.06</v>
+        <v>7847.6</v>
       </c>
       <c r="G46" t="n">
-        <v>22551.75</v>
+        <v>34130.55</v>
       </c>
     </row>
     <row r="47">
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C47" t="n">
         <v>32768</v>
@@ -1525,13 +1525,13 @@
         <v>64</v>
       </c>
       <c r="E47" t="n">
-        <v>2639.31</v>
+        <v>2315.46</v>
       </c>
       <c r="F47" t="n">
-        <v>10277.51</v>
+        <v>9954.42</v>
       </c>
       <c r="G47" t="n">
-        <v>38578.86</v>
+        <v>59091.75</v>
       </c>
     </row>
     <row r="48">
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C48" t="n">
         <v>32768</v>
@@ -1548,13 +1548,13 @@
         <v>96</v>
       </c>
       <c r="E48" t="n">
-        <v>4368.95</v>
+        <v>3199.57</v>
       </c>
       <c r="F48" t="n">
-        <v>13703.4</v>
+        <v>12435.05</v>
       </c>
       <c r="G48" t="n">
-        <v>92336.92</v>
+        <v>143004.31</v>
       </c>
     </row>
     <row r="49">
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C49" t="n">
         <v>32768</v>
@@ -1571,13 +1571,13 @@
         <v>128</v>
       </c>
       <c r="E49" t="n">
-        <v>4023.48</v>
+        <v>3884.27</v>
       </c>
       <c r="F49" t="n">
-        <v>12347.56</v>
+        <v>13357.96</v>
       </c>
       <c r="G49" t="n">
-        <v>92131.69</v>
+        <v>143941.3</v>
       </c>
     </row>
     <row r="50">
@@ -1585,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C50" t="n">
         <v>65536</v>
@@ -1594,13 +1594,13 @@
         <v>64</v>
       </c>
       <c r="E50" t="n">
-        <v>5542.54</v>
+        <v>4278.91</v>
       </c>
       <c r="F50" t="n">
-        <v>21136.64</v>
+        <v>20191.3</v>
       </c>
       <c r="G50" t="n">
-        <v>156748.52</v>
+        <v>244708.85</v>
       </c>
     </row>
     <row r="51">
@@ -1608,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C51" t="n">
         <v>65536</v>
@@ -1617,13 +1617,13 @@
         <v>96</v>
       </c>
       <c r="E51" t="n">
-        <v>4988.72</v>
+        <v>6123.5</v>
       </c>
       <c r="F51" t="n">
-        <v>24296.36</v>
+        <v>28423.92</v>
       </c>
       <c r="G51" t="n">
-        <v>380012.55</v>
+        <v>625782.87</v>
       </c>
     </row>
     <row r="52">
@@ -1631,7 +1631,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C52" t="n">
         <v>65536</v>
@@ -1640,13 +1640,13 @@
         <v>128</v>
       </c>
       <c r="E52" t="n">
-        <v>8528.6</v>
+        <v>7488.47</v>
       </c>
       <c r="F52" t="n">
-        <v>26818.41</v>
+        <v>31275.85</v>
       </c>
       <c r="G52" t="n">
-        <v>383861.25</v>
+        <v>632512.99</v>
       </c>
     </row>
     <row r="53">
@@ -1654,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C53" t="n">
         <v>131072</v>
@@ -1663,13 +1663,13 @@
         <v>64</v>
       </c>
       <c r="E53" t="n">
-        <v>6968.38</v>
+        <v>8316.309999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>39000.05</v>
+        <v>39162.15</v>
       </c>
       <c r="G53" t="n">
-        <v>657327.79</v>
+        <v>1090351.78</v>
       </c>
     </row>
     <row r="54">
@@ -1677,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C54" t="n">
         <v>131072</v>
@@ -1686,13 +1686,13 @@
         <v>96</v>
       </c>
       <c r="E54" t="n">
-        <v>10754.21</v>
+        <v>12145.49</v>
       </c>
       <c r="F54" t="n">
-        <v>47868.25</v>
+        <v>50824.24</v>
       </c>
       <c r="G54" t="n">
-        <v>1536831.92</v>
+        <v>2590110.42</v>
       </c>
     </row>
     <row r="55">
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C55" t="n">
         <v>131072</v>
@@ -1709,13 +1709,13 @@
         <v>128</v>
       </c>
       <c r="E55" t="n">
-        <v>14848.06</v>
+        <v>14743.58</v>
       </c>
       <c r="F55" t="n">
-        <v>50569.25</v>
+        <v>52540.42</v>
       </c>
       <c r="G55" t="n">
-        <v>1558449.79</v>
+        <v>2635571.33</v>
       </c>
     </row>
     <row r="56">
@@ -1723,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="B56" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C56" t="n">
         <v>4096</v>
@@ -1732,13 +1732,13 @@
         <v>64</v>
       </c>
       <c r="E56" t="n">
-        <v>776.9299999999999</v>
+        <v>711.22</v>
       </c>
       <c r="F56" t="n">
-        <v>2017.5</v>
+        <v>1556.45</v>
       </c>
       <c r="G56" t="n">
-        <v>1829.18</v>
+        <v>1972.6</v>
       </c>
     </row>
     <row r="57">
@@ -1746,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C57" t="n">
         <v>4096</v>
@@ -1755,13 +1755,13 @@
         <v>96</v>
       </c>
       <c r="E57" t="n">
-        <v>1090.2</v>
+        <v>791.17</v>
       </c>
       <c r="F57" t="n">
-        <v>2872.7</v>
+        <v>4112.12</v>
       </c>
       <c r="G57" t="n">
-        <v>2839.61</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="58">
@@ -1769,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C58" t="n">
         <v>4096</v>
@@ -1778,13 +1778,13 @@
         <v>128</v>
       </c>
       <c r="E58" t="n">
-        <v>2662.39</v>
+        <v>822.46</v>
       </c>
       <c r="F58" t="n">
-        <v>4052.29</v>
+        <v>2226.52</v>
       </c>
       <c r="G58" t="n">
-        <v>2742.54</v>
+        <v>3600.8</v>
       </c>
     </row>
     <row r="59">
@@ -1792,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C59" t="n">
         <v>8192</v>
@@ -1801,13 +1801,13 @@
         <v>64</v>
       </c>
       <c r="E59" t="n">
-        <v>1104.28</v>
+        <v>833.5700000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>4348.52</v>
+        <v>3745.71</v>
       </c>
       <c r="G59" t="n">
-        <v>4279.7</v>
+        <v>6295.58</v>
       </c>
     </row>
     <row r="60">
@@ -1815,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="B60" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C60" t="n">
         <v>8192</v>
@@ -1824,13 +1824,13 @@
         <v>96</v>
       </c>
       <c r="E60" t="n">
-        <v>1002.03</v>
+        <v>1201.13</v>
       </c>
       <c r="F60" t="n">
-        <v>3455.69</v>
+        <v>3955.53</v>
       </c>
       <c r="G60" t="n">
-        <v>8967.629999999999</v>
+        <v>11543.73</v>
       </c>
     </row>
     <row r="61">
@@ -1838,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C61" t="n">
         <v>8192</v>
@@ -1847,13 +1847,13 @@
         <v>128</v>
       </c>
       <c r="E61" t="n">
-        <v>2020.52</v>
+        <v>1372.73</v>
       </c>
       <c r="F61" t="n">
-        <v>3595.96</v>
+        <v>4154.44</v>
       </c>
       <c r="G61" t="n">
-        <v>8828.33</v>
+        <v>11421.83</v>
       </c>
     </row>
     <row r="62">
@@ -1861,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="B62" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C62" t="n">
         <v>16384</v>
@@ -1870,13 +1870,13 @@
         <v>64</v>
       </c>
       <c r="E62" t="n">
-        <v>2535.35</v>
+        <v>1362.38</v>
       </c>
       <c r="F62" t="n">
-        <v>5379.69</v>
+        <v>6456.15</v>
       </c>
       <c r="G62" t="n">
-        <v>15228.49</v>
+        <v>19669.89</v>
       </c>
     </row>
     <row r="63">
@@ -1884,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="B63" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C63" t="n">
         <v>16384</v>
@@ -1893,13 +1893,13 @@
         <v>96</v>
       </c>
       <c r="E63" t="n">
-        <v>2914</v>
+        <v>2127.18</v>
       </c>
       <c r="F63" t="n">
-        <v>7779.9</v>
+        <v>8716.15</v>
       </c>
       <c r="G63" t="n">
-        <v>33909.12</v>
+        <v>45346.51</v>
       </c>
     </row>
     <row r="64">
@@ -1907,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="B64" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C64" t="n">
         <v>16384</v>
@@ -1916,13 +1916,13 @@
         <v>128</v>
       </c>
       <c r="E64" t="n">
-        <v>2441.23</v>
+        <v>2510.21</v>
       </c>
       <c r="F64" t="n">
-        <v>7847.6</v>
+        <v>10197.14</v>
       </c>
       <c r="G64" t="n">
-        <v>34130.55</v>
+        <v>45012.39</v>
       </c>
     </row>
     <row r="65">
@@ -1930,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="B65" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C65" t="n">
         <v>32768</v>
@@ -1939,13 +1939,13 @@
         <v>64</v>
       </c>
       <c r="E65" t="n">
-        <v>3821.21</v>
+        <v>2581.64</v>
       </c>
       <c r="F65" t="n">
-        <v>9954.42</v>
+        <v>11837.2</v>
       </c>
       <c r="G65" t="n">
-        <v>59091.75</v>
+        <v>79771.67999999999</v>
       </c>
     </row>
     <row r="66">
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="B66" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C66" t="n">
         <v>32768</v>
@@ -1962,13 +1962,13 @@
         <v>96</v>
       </c>
       <c r="E66" t="n">
-        <v>3197.43</v>
+        <v>3987.06</v>
       </c>
       <c r="F66" t="n">
-        <v>12435.05</v>
+        <v>14022.79</v>
       </c>
       <c r="G66" t="n">
-        <v>143004.31</v>
+        <v>193334.28</v>
       </c>
     </row>
     <row r="67">
@@ -1976,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C67" t="n">
         <v>32768</v>
@@ -1985,13 +1985,13 @@
         <v>128</v>
       </c>
       <c r="E67" t="n">
-        <v>3892.18</v>
+        <v>4762.65</v>
       </c>
       <c r="F67" t="n">
-        <v>13357.96</v>
+        <v>15089.05</v>
       </c>
       <c r="G67" t="n">
-        <v>143941.3</v>
+        <v>190656.77</v>
       </c>
     </row>
     <row r="68">
@@ -1999,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="B68" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C68" t="n">
         <v>65536</v>
@@ -2008,13 +2008,13 @@
         <v>64</v>
       </c>
       <c r="E68" t="n">
-        <v>6020.07</v>
+        <v>4921.9</v>
       </c>
       <c r="F68" t="n">
-        <v>20191.3</v>
+        <v>20741.97</v>
       </c>
       <c r="G68" t="n">
-        <v>244708.85</v>
+        <v>334040.2</v>
       </c>
     </row>
     <row r="69">
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B69" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C69" t="n">
         <v>65536</v>
@@ -2031,13 +2031,13 @@
         <v>96</v>
       </c>
       <c r="E69" t="n">
-        <v>6984.34</v>
+        <v>7666.54</v>
       </c>
       <c r="F69" t="n">
-        <v>28423.92</v>
+        <v>26712.24</v>
       </c>
       <c r="G69" t="n">
-        <v>625782.87</v>
+        <v>851994.77</v>
       </c>
     </row>
     <row r="70">
@@ -2045,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="B70" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C70" t="n">
         <v>65536</v>
@@ -2054,13 +2054,13 @@
         <v>128</v>
       </c>
       <c r="E70" t="n">
-        <v>7735.82</v>
+        <v>9195.01</v>
       </c>
       <c r="F70" t="n">
-        <v>31275.85</v>
+        <v>29698.14</v>
       </c>
       <c r="G70" t="n">
-        <v>632512.99</v>
+        <v>848582.96</v>
       </c>
     </row>
     <row r="71">
@@ -2068,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C71" t="n">
         <v>131072</v>
@@ -2077,13 +2077,13 @@
         <v>64</v>
       </c>
       <c r="E71" t="n">
-        <v>8502.34</v>
+        <v>9490.950000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>39162.15</v>
+        <v>40927.73</v>
       </c>
       <c r="G71" t="n">
-        <v>1090351.78</v>
+        <v>1485814.5</v>
       </c>
     </row>
     <row r="72">
@@ -2091,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C72" t="n">
         <v>131072</v>
@@ -2100,13 +2100,13 @@
         <v>96</v>
       </c>
       <c r="E72" t="n">
-        <v>13508.98</v>
+        <v>15172.31</v>
       </c>
       <c r="F72" t="n">
-        <v>50824.24</v>
+        <v>52674.13</v>
       </c>
       <c r="G72" t="n">
-        <v>2590110.42</v>
+        <v>3490785.43</v>
       </c>
     </row>
     <row r="73">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="B73" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C73" t="n">
         <v>131072</v>
@@ -2123,13 +2123,13 @@
         <v>128</v>
       </c>
       <c r="E73" t="n">
-        <v>21621.36</v>
+        <v>18118.62</v>
       </c>
       <c r="F73" t="n">
-        <v>52540.42</v>
+        <v>57014.16</v>
       </c>
       <c r="G73" t="n">
-        <v>2635571.33</v>
+        <v>3463553.68</v>
       </c>
     </row>
     <row r="74">
@@ -2137,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="B74" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C74" t="n">
         <v>4096</v>
@@ -2146,13 +2146,13 @@
         <v>64</v>
       </c>
       <c r="E74" t="n">
-        <v>1402.56</v>
+        <v>752.1799999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>1556.45</v>
+        <v>1647.91</v>
       </c>
       <c r="G74" t="n">
-        <v>1972.6</v>
+        <v>3108.98</v>
       </c>
     </row>
     <row r="75">
@@ -2160,7 +2160,7 @@
         <v>1</v>
       </c>
       <c r="B75" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C75" t="n">
         <v>4096</v>
@@ -2169,13 +2169,13 @@
         <v>96</v>
       </c>
       <c r="E75" t="n">
-        <v>2999.91</v>
+        <v>1097.23</v>
       </c>
       <c r="F75" t="n">
-        <v>4112.12</v>
+        <v>3794.94</v>
       </c>
       <c r="G75" t="n">
-        <v>3456</v>
+        <v>6307.7</v>
       </c>
     </row>
     <row r="76">
@@ -2183,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="B76" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C76" t="n">
         <v>4096</v>
@@ -2192,13 +2192,13 @@
         <v>128</v>
       </c>
       <c r="E76" t="n">
-        <v>3337.23</v>
+        <v>1296.43</v>
       </c>
       <c r="F76" t="n">
-        <v>2226.52</v>
+        <v>3539.34</v>
       </c>
       <c r="G76" t="n">
-        <v>3600.8</v>
+        <v>6625.91</v>
       </c>
     </row>
     <row r="77">
@@ -2206,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C77" t="n">
         <v>8192</v>
@@ -2215,13 +2215,13 @@
         <v>64</v>
       </c>
       <c r="E77" t="n">
-        <v>826.14</v>
+        <v>1153.79</v>
       </c>
       <c r="F77" t="n">
-        <v>3745.71</v>
+        <v>2848.81</v>
       </c>
       <c r="G77" t="n">
-        <v>6295.58</v>
+        <v>10321.34</v>
       </c>
     </row>
     <row r="78">
@@ -2229,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="B78" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C78" t="n">
         <v>8192</v>
@@ -2238,13 +2238,13 @@
         <v>96</v>
       </c>
       <c r="E78" t="n">
-        <v>1475.76</v>
+        <v>1914.49</v>
       </c>
       <c r="F78" t="n">
-        <v>3955.53</v>
+        <v>7033.73</v>
       </c>
       <c r="G78" t="n">
-        <v>11543.73</v>
+        <v>22996.63</v>
       </c>
     </row>
     <row r="79">
@@ -2252,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="B79" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C79" t="n">
         <v>8192</v>
@@ -2261,13 +2261,13 @@
         <v>128</v>
       </c>
       <c r="E79" t="n">
-        <v>3170.05</v>
+        <v>2316.12</v>
       </c>
       <c r="F79" t="n">
-        <v>4154.44</v>
+        <v>5803.22</v>
       </c>
       <c r="G79" t="n">
-        <v>11421.83</v>
+        <v>22163.35</v>
       </c>
     </row>
     <row r="80">
@@ -2275,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="B80" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C80" t="n">
         <v>16384</v>
@@ -2284,13 +2284,13 @@
         <v>64</v>
       </c>
       <c r="E80" t="n">
-        <v>2327.41</v>
+        <v>2067.87</v>
       </c>
       <c r="F80" t="n">
-        <v>6456.15</v>
+        <v>5851.07</v>
       </c>
       <c r="G80" t="n">
-        <v>19669.89</v>
+        <v>38444.52</v>
       </c>
     </row>
     <row r="81">
@@ -2298,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="B81" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C81" t="n">
         <v>16384</v>
@@ -2307,13 +2307,13 @@
         <v>96</v>
       </c>
       <c r="E81" t="n">
-        <v>2767.62</v>
+        <v>3630.88</v>
       </c>
       <c r="F81" t="n">
-        <v>8716.15</v>
+        <v>10134.53</v>
       </c>
       <c r="G81" t="n">
-        <v>45346.51</v>
+        <v>90422.89</v>
       </c>
     </row>
     <row r="82">
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="B82" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C82" t="n">
         <v>16384</v>
@@ -2330,13 +2330,13 @@
         <v>128</v>
       </c>
       <c r="E82" t="n">
-        <v>3817.83</v>
+        <v>4410.01</v>
       </c>
       <c r="F82" t="n">
-        <v>10197.14</v>
+        <v>11394.02</v>
       </c>
       <c r="G82" t="n">
-        <v>45012.39</v>
+        <v>90210.24000000001</v>
       </c>
     </row>
     <row r="83">
@@ -2344,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="B83" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C83" t="n">
         <v>32768</v>
@@ -2353,13 +2353,13 @@
         <v>64</v>
       </c>
       <c r="E83" t="n">
-        <v>4333.85</v>
+        <v>3890.51</v>
       </c>
       <c r="F83" t="n">
-        <v>11837.2</v>
+        <v>11914.96</v>
       </c>
       <c r="G83" t="n">
-        <v>79771.67999999999</v>
+        <v>158822.2</v>
       </c>
     </row>
     <row r="84">
@@ -2367,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C84" t="n">
         <v>32768</v>
@@ -2376,13 +2376,13 @@
         <v>96</v>
       </c>
       <c r="E84" t="n">
-        <v>4617.37</v>
+        <v>7025.54</v>
       </c>
       <c r="F84" t="n">
-        <v>14022.79</v>
+        <v>20521.36</v>
       </c>
       <c r="G84" t="n">
-        <v>193334.28</v>
+        <v>388142.45</v>
       </c>
     </row>
     <row r="85">
@@ -2390,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="B85" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C85" t="n">
         <v>32768</v>
@@ -2399,13 +2399,13 @@
         <v>128</v>
       </c>
       <c r="E85" t="n">
-        <v>6816.27</v>
+        <v>8742.719999999999</v>
       </c>
       <c r="F85" t="n">
-        <v>15089.05</v>
+        <v>22874.81</v>
       </c>
       <c r="G85" t="n">
-        <v>190656.77</v>
+        <v>383180.75</v>
       </c>
     </row>
     <row r="86">
@@ -2413,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="B86" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C86" t="n">
         <v>65536</v>
@@ -2422,13 +2422,13 @@
         <v>64</v>
       </c>
       <c r="E86" t="n">
-        <v>5415.95</v>
+        <v>7466.45</v>
       </c>
       <c r="F86" t="n">
-        <v>20741.97</v>
+        <v>23111.78</v>
       </c>
       <c r="G86" t="n">
-        <v>334040.2</v>
+        <v>682215.97</v>
       </c>
     </row>
     <row r="87">
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="B87" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C87" t="n">
         <v>65536</v>
@@ -2445,13 +2445,13 @@
         <v>96</v>
       </c>
       <c r="E87" t="n">
-        <v>7726.97</v>
+        <v>13777.46</v>
       </c>
       <c r="F87" t="n">
-        <v>26712.24</v>
+        <v>40878.2</v>
       </c>
       <c r="G87" t="n">
-        <v>851994.77</v>
+        <v>1727908.38</v>
       </c>
     </row>
     <row r="88">
@@ -2459,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="B88" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C88" t="n">
         <v>65536</v>
@@ -2468,13 +2468,13 @@
         <v>128</v>
       </c>
       <c r="E88" t="n">
-        <v>9339.32</v>
+        <v>17117.64</v>
       </c>
       <c r="F88" t="n">
-        <v>29698.14</v>
+        <v>45579.83</v>
       </c>
       <c r="G88" t="n">
-        <v>848582.96</v>
+        <v>1728481.26</v>
       </c>
     </row>
     <row r="89">
@@ -2482,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="B89" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C89" t="n">
         <v>131072</v>
@@ -2491,13 +2491,13 @@
         <v>64</v>
       </c>
       <c r="E89" t="n">
-        <v>12194.95</v>
+        <v>14810.15</v>
       </c>
       <c r="F89" t="n">
-        <v>40927.73</v>
+        <v>43499.18</v>
       </c>
       <c r="G89" t="n">
-        <v>1485814.5</v>
+        <v>3023698.68</v>
       </c>
     </row>
     <row r="90">
@@ -2505,22 +2505,20 @@
         <v>1</v>
       </c>
       <c r="B90" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C90" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="D90" t="n">
-        <v>96</v>
-      </c>
-      <c r="E90" t="n">
-        <v>15741.57</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E90" t="inlineStr"/>
       <c r="F90" t="n">
-        <v>52674.13</v>
+        <v>1360.81</v>
       </c>
       <c r="G90" t="n">
-        <v>3490785.43</v>
+        <v>1509.44</v>
       </c>
     </row>
     <row r="91">
@@ -2528,22 +2526,20 @@
         <v>1</v>
       </c>
       <c r="B91" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C91" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="D91" t="n">
-        <v>128</v>
-      </c>
-      <c r="E91" t="n">
-        <v>19147.96</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E91" t="inlineStr"/>
       <c r="F91" t="n">
-        <v>57014.16</v>
+        <v>2290.4</v>
       </c>
       <c r="G91" t="n">
-        <v>3463553.68</v>
+        <v>1404.57</v>
       </c>
     </row>
     <row r="92">
@@ -2551,22 +2547,20 @@
         <v>1</v>
       </c>
       <c r="B92" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C92" t="n">
         <v>4096</v>
       </c>
       <c r="D92" t="n">
-        <v>64</v>
-      </c>
-      <c r="E92" t="n">
-        <v>767.53</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="E92" t="inlineStr"/>
       <c r="F92" t="n">
-        <v>1647.91</v>
+        <v>2368.84</v>
       </c>
       <c r="G92" t="n">
-        <v>3108.98</v>
+        <v>1287.13</v>
       </c>
     </row>
     <row r="93">
@@ -2574,22 +2568,20 @@
         <v>1</v>
       </c>
       <c r="B93" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C93" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="D93" t="n">
-        <v>96</v>
-      </c>
-      <c r="E93" t="n">
-        <v>1267.62</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E93" t="inlineStr"/>
       <c r="F93" t="n">
-        <v>3794.94</v>
+        <v>2651.28</v>
       </c>
       <c r="G93" t="n">
-        <v>6307.7</v>
+        <v>2156.69</v>
       </c>
     </row>
     <row r="94">
@@ -2597,22 +2589,20 @@
         <v>1</v>
       </c>
       <c r="B94" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C94" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="D94" t="n">
-        <v>128</v>
-      </c>
-      <c r="E94" t="n">
-        <v>2947.88</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E94" t="inlineStr"/>
       <c r="F94" t="n">
-        <v>3539.34</v>
+        <v>3424.69</v>
       </c>
       <c r="G94" t="n">
-        <v>6625.91</v>
+        <v>2543.75</v>
       </c>
     </row>
     <row r="95">
@@ -2620,22 +2610,20 @@
         <v>1</v>
       </c>
       <c r="B95" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C95" t="n">
         <v>8192</v>
       </c>
       <c r="D95" t="n">
-        <v>64</v>
-      </c>
-      <c r="E95" t="n">
-        <v>2007.72</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>2848.81</v>
+        <v>3349.94</v>
       </c>
       <c r="G95" t="n">
-        <v>10321.34</v>
+        <v>2509.21</v>
       </c>
     </row>
     <row r="96">
@@ -2643,22 +2631,20 @@
         <v>1</v>
       </c>
       <c r="B96" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C96" t="n">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="D96" t="n">
-        <v>96</v>
-      </c>
-      <c r="E96" t="n">
-        <v>3923.46</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E96" t="inlineStr"/>
       <c r="F96" t="n">
-        <v>7033.73</v>
+        <v>4722.72</v>
       </c>
       <c r="G96" t="n">
-        <v>22996.63</v>
+        <v>3654.17</v>
       </c>
     </row>
     <row r="97">
@@ -2666,22 +2652,20 @@
         <v>1</v>
       </c>
       <c r="B97" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C97" t="n">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="D97" t="n">
-        <v>128</v>
-      </c>
-      <c r="E97" t="n">
-        <v>2344.77</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E97" t="inlineStr"/>
       <c r="F97" t="n">
-        <v>5803.22</v>
+        <v>5430.52</v>
       </c>
       <c r="G97" t="n">
-        <v>22163.35</v>
+        <v>7054.29</v>
       </c>
     </row>
     <row r="98">
@@ -2689,22 +2673,20 @@
         <v>1</v>
       </c>
       <c r="B98" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C98" t="n">
         <v>16384</v>
       </c>
       <c r="D98" t="n">
-        <v>64</v>
-      </c>
-      <c r="E98" t="n">
-        <v>3895.43</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="E98" t="inlineStr"/>
       <c r="F98" t="n">
-        <v>5851.07</v>
+        <v>5595.41</v>
       </c>
       <c r="G98" t="n">
-        <v>38444.52</v>
+        <v>6225.32</v>
       </c>
     </row>
     <row r="99">
@@ -2712,22 +2694,20 @@
         <v>1</v>
       </c>
       <c r="B99" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>16384</v>
+        <v>32768</v>
       </c>
       <c r="D99" t="n">
-        <v>96</v>
-      </c>
-      <c r="E99" t="n">
-        <v>5811.38</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E99" t="inlineStr"/>
       <c r="F99" t="n">
-        <v>10134.53</v>
+        <v>13350.14</v>
       </c>
       <c r="G99" t="n">
-        <v>90422.89</v>
+        <v>11276.34</v>
       </c>
     </row>
     <row r="100">
@@ -2735,22 +2715,20 @@
         <v>1</v>
       </c>
       <c r="B100" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C100" t="n">
-        <v>16384</v>
+        <v>32768</v>
       </c>
       <c r="D100" t="n">
-        <v>128</v>
-      </c>
-      <c r="E100" t="n">
-        <v>5163.48</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E100" t="inlineStr"/>
       <c r="F100" t="n">
-        <v>11394.02</v>
+        <v>12874.73</v>
       </c>
       <c r="G100" t="n">
-        <v>90210.24000000001</v>
+        <v>22338.07</v>
       </c>
     </row>
     <row r="101">
@@ -2758,22 +2736,20 @@
         <v>1</v>
       </c>
       <c r="B101" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C101" t="n">
         <v>32768</v>
       </c>
       <c r="D101" t="n">
-        <v>64</v>
-      </c>
-      <c r="E101" t="n">
-        <v>4065.6</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="E101" t="inlineStr"/>
       <c r="F101" t="n">
-        <v>11914.96</v>
+        <v>10944.46</v>
       </c>
       <c r="G101" t="n">
-        <v>158822.2</v>
+        <v>21714.07</v>
       </c>
     </row>
     <row r="102">
@@ -2781,22 +2757,20 @@
         <v>1</v>
       </c>
       <c r="B102" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>32768</v>
+        <v>65536</v>
       </c>
       <c r="D102" t="n">
-        <v>96</v>
-      </c>
-      <c r="E102" t="n">
-        <v>7663.95</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E102" t="inlineStr"/>
       <c r="F102" t="n">
-        <v>20521.36</v>
+        <v>18697.12</v>
       </c>
       <c r="G102" t="n">
-        <v>388142.45</v>
+        <v>36911.5</v>
       </c>
     </row>
     <row r="103">
@@ -2804,22 +2778,20 @@
         <v>1</v>
       </c>
       <c r="B103" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C103" t="n">
-        <v>32768</v>
+        <v>65536</v>
       </c>
       <c r="D103" t="n">
-        <v>128</v>
-      </c>
-      <c r="E103" t="n">
-        <v>9843.190000000001</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E103" t="inlineStr"/>
       <c r="F103" t="n">
-        <v>22874.81</v>
+        <v>22099.08</v>
       </c>
       <c r="G103" t="n">
-        <v>383180.75</v>
+        <v>88454.03999999999</v>
       </c>
     </row>
     <row r="104">
@@ -2827,22 +2799,20 @@
         <v>1</v>
       </c>
       <c r="B104" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C104" t="n">
         <v>65536</v>
       </c>
       <c r="D104" t="n">
-        <v>64</v>
-      </c>
-      <c r="E104" t="n">
-        <v>10004</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="E104" t="inlineStr"/>
       <c r="F104" t="n">
-        <v>23111.78</v>
+        <v>22783.43</v>
       </c>
       <c r="G104" t="n">
-        <v>682215.97</v>
+        <v>88567.53</v>
       </c>
     </row>
     <row r="105">
@@ -2850,22 +2820,20 @@
         <v>1</v>
       </c>
       <c r="B105" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C105" t="n">
-        <v>65536</v>
+        <v>131072</v>
       </c>
       <c r="D105" t="n">
-        <v>96</v>
-      </c>
-      <c r="E105" t="n">
-        <v>14632.24</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E105" t="inlineStr"/>
       <c r="F105" t="n">
-        <v>40878.2</v>
+        <v>38140.03</v>
       </c>
       <c r="G105" t="n">
-        <v>1727908.38</v>
+        <v>152341.51</v>
       </c>
     </row>
     <row r="106">
@@ -2873,22 +2841,20 @@
         <v>1</v>
       </c>
       <c r="B106" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C106" t="n">
-        <v>65536</v>
+        <v>131072</v>
       </c>
       <c r="D106" t="n">
-        <v>128</v>
-      </c>
-      <c r="E106" t="n">
-        <v>19054.99</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E106" t="inlineStr"/>
       <c r="F106" t="n">
-        <v>45579.83</v>
+        <v>41697.72</v>
       </c>
       <c r="G106" t="n">
-        <v>1728481.26</v>
+        <v>358293.33</v>
       </c>
     </row>
     <row r="107">
@@ -2896,22 +2862,20 @@
         <v>1</v>
       </c>
       <c r="B107" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C107" t="n">
         <v>131072</v>
       </c>
       <c r="D107" t="n">
-        <v>64</v>
-      </c>
-      <c r="E107" t="n">
-        <v>15776.03</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="E107" t="inlineStr"/>
       <c r="F107" t="n">
-        <v>43499.18</v>
+        <v>43157.47</v>
       </c>
       <c r="G107" t="n">
-        <v>3023698.68</v>
+        <v>356403.24</v>
       </c>
     </row>
     <row r="108">
@@ -2927,9 +2891,7 @@
       <c r="D108" t="n">
         <v>96</v>
       </c>
-      <c r="E108" t="n">
-        <v>27986.12</v>
-      </c>
+      <c r="E108" t="inlineStr"/>
       <c r="F108" t="n">
         <v>91230.13</v>
       </c>
@@ -2950,9 +2912,7 @@
       <c r="D109" t="n">
         <v>128</v>
       </c>
-      <c r="E109" t="n">
-        <v>34810.1</v>
-      </c>
+      <c r="E109" t="inlineStr"/>
       <c r="F109" t="n">
         <v>99101.53999999999</v>
       </c>
@@ -3029,9 +2989,7 @@
       <c r="D2" t="n">
         <v>64</v>
       </c>
-      <c r="E2" t="n">
-        <v>755.3099999999999</v>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
         <v>1360.81</v>
       </c>
@@ -3052,9 +3010,7 @@
       <c r="D3" t="n">
         <v>96</v>
       </c>
-      <c r="E3" t="n">
-        <v>1258.16</v>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
         <v>2290.4</v>
       </c>
@@ -3075,9 +3031,7 @@
       <c r="D4" t="n">
         <v>128</v>
       </c>
-      <c r="E4" t="n">
-        <v>1065.87</v>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>2368.84</v>
       </c>
@@ -3098,9 +3052,7 @@
       <c r="D5" t="n">
         <v>64</v>
       </c>
-      <c r="E5" t="n">
-        <v>781.91</v>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>2651.28</v>
       </c>
@@ -3121,9 +3073,7 @@
       <c r="D6" t="n">
         <v>96</v>
       </c>
-      <c r="E6" t="n">
-        <v>2013.27</v>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
         <v>3424.69</v>
       </c>
@@ -3144,9 +3094,7 @@
       <c r="D7" t="n">
         <v>128</v>
       </c>
-      <c r="E7" t="n">
-        <v>1350</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
         <v>3349.94</v>
       </c>
@@ -3167,9 +3115,7 @@
       <c r="D8" t="n">
         <v>64</v>
       </c>
-      <c r="E8" t="n">
-        <v>1040.86</v>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
         <v>4722.72</v>
       </c>
@@ -3190,9 +3136,7 @@
       <c r="D9" t="n">
         <v>96</v>
       </c>
-      <c r="E9" t="n">
-        <v>954.74</v>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
         <v>5430.52</v>
       </c>
@@ -3213,9 +3157,7 @@
       <c r="D10" t="n">
         <v>128</v>
       </c>
-      <c r="E10" t="n">
-        <v>1340.62</v>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
         <v>5595.41</v>
       </c>
@@ -3236,9 +3178,7 @@
       <c r="D11" t="n">
         <v>64</v>
       </c>
-      <c r="E11" t="n">
-        <v>2015.46</v>
-      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
         <v>13350.14</v>
       </c>
@@ -3259,9 +3199,7 @@
       <c r="D12" t="n">
         <v>96</v>
       </c>
-      <c r="E12" t="n">
-        <v>3532.06</v>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
         <v>12874.73</v>
       </c>
@@ -3282,9 +3220,7 @@
       <c r="D13" t="n">
         <v>128</v>
       </c>
-      <c r="E13" t="n">
-        <v>1710.85</v>
-      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
         <v>10944.46</v>
       </c>
@@ -3305,9 +3241,7 @@
       <c r="D14" t="n">
         <v>64</v>
       </c>
-      <c r="E14" t="n">
-        <v>3427.42</v>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
         <v>18697.12</v>
       </c>
@@ -3328,9 +3262,7 @@
       <c r="D15" t="n">
         <v>96</v>
       </c>
-      <c r="E15" t="n">
-        <v>3380.78</v>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
         <v>22099.08</v>
       </c>
@@ -3351,9 +3283,7 @@
       <c r="D16" t="n">
         <v>128</v>
       </c>
-      <c r="E16" t="n">
-        <v>3201.62</v>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
         <v>22783.43</v>
       </c>
@@ -3374,9 +3304,7 @@
       <c r="D17" t="n">
         <v>64</v>
       </c>
-      <c r="E17" t="n">
-        <v>6711.47</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
         <v>38140.03</v>
       </c>
@@ -3397,9 +3325,7 @@
       <c r="D18" t="n">
         <v>96</v>
       </c>
-      <c r="E18" t="n">
-        <v>7749.36</v>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
         <v>41697.72</v>
       </c>
@@ -3420,9 +3346,7 @@
       <c r="D19" t="n">
         <v>128</v>
       </c>
-      <c r="E19" t="n">
-        <v>6685.98</v>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
         <v>43157.47</v>
       </c>
@@ -3500,7 +3424,7 @@
         <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>791.64</v>
+        <v>782.9299999999999</v>
       </c>
       <c r="F2" t="n">
         <v>3060.78</v>
@@ -3523,7 +3447,7 @@
         <v>96</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.3</v>
+        <v>754.29</v>
       </c>
       <c r="F3" t="n">
         <v>3573.93</v>
@@ -3546,7 +3470,7 @@
         <v>128</v>
       </c>
       <c r="E4" t="n">
-        <v>932.3099999999999</v>
+        <v>757.21</v>
       </c>
       <c r="F4" t="n">
         <v>3394.57</v>
@@ -3569,7 +3493,7 @@
         <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>2149.34</v>
+        <v>745.74</v>
       </c>
       <c r="F5" t="n">
         <v>3378.63</v>
@@ -3592,7 +3516,7 @@
         <v>96</v>
       </c>
       <c r="E6" t="n">
-        <v>908.79</v>
+        <v>773.03</v>
       </c>
       <c r="F6" t="n">
         <v>7584.95</v>
@@ -3615,7 +3539,7 @@
         <v>128</v>
       </c>
       <c r="E7" t="n">
-        <v>809.6799999999999</v>
+        <v>793.86</v>
       </c>
       <c r="F7" t="n">
         <v>3999.83</v>
@@ -3638,7 +3562,7 @@
         <v>64</v>
       </c>
       <c r="E8" t="n">
-        <v>889.52</v>
+        <v>894.8</v>
       </c>
       <c r="F8" t="n">
         <v>5222.33</v>
@@ -3661,7 +3585,7 @@
         <v>96</v>
       </c>
       <c r="E9" t="n">
-        <v>1476.16</v>
+        <v>1124.19</v>
       </c>
       <c r="F9" t="n">
         <v>5875.63</v>
@@ -3684,7 +3608,7 @@
         <v>128</v>
       </c>
       <c r="E10" t="n">
-        <v>3083.14</v>
+        <v>1208.53</v>
       </c>
       <c r="F10" t="n">
         <v>6029.12</v>
@@ -3707,7 +3631,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>1608.19</v>
+        <v>1617.34</v>
       </c>
       <c r="F11" t="n">
         <v>11465.01</v>
@@ -3730,7 +3654,7 @@
         <v>96</v>
       </c>
       <c r="E12" t="n">
-        <v>3001.19</v>
+        <v>1978</v>
       </c>
       <c r="F12" t="n">
         <v>11732.24</v>
@@ -3753,7 +3677,7 @@
         <v>128</v>
       </c>
       <c r="E13" t="n">
-        <v>2569.88</v>
+        <v>2131.34</v>
       </c>
       <c r="F13" t="n">
         <v>11825.38</v>
@@ -3776,7 +3700,7 @@
         <v>64</v>
       </c>
       <c r="E14" t="n">
-        <v>3811.91</v>
+        <v>2906.78</v>
       </c>
       <c r="F14" t="n">
         <v>19664.03</v>
@@ -3799,7 +3723,7 @@
         <v>96</v>
       </c>
       <c r="E15" t="n">
-        <v>5433.01</v>
+        <v>3622.87</v>
       </c>
       <c r="F15" t="n">
         <v>21715.06</v>
@@ -3822,7 +3746,7 @@
         <v>128</v>
       </c>
       <c r="E16" t="n">
-        <v>6868.3</v>
+        <v>4005.64</v>
       </c>
       <c r="F16" t="n">
         <v>24627.72</v>
@@ -3845,7 +3769,7 @@
         <v>64</v>
       </c>
       <c r="E17" t="n">
-        <v>6532.68</v>
+        <v>5578.28</v>
       </c>
       <c r="F17" t="n">
         <v>38019.22</v>
@@ -3868,7 +3792,7 @@
         <v>96</v>
       </c>
       <c r="E18" t="n">
-        <v>7395.71</v>
+        <v>7047.1</v>
       </c>
       <c r="F18" t="n">
         <v>43949.42</v>
@@ -3891,7 +3815,7 @@
         <v>128</v>
       </c>
       <c r="E19" t="n">
-        <v>7720.56</v>
+        <v>7625.06</v>
       </c>
       <c r="F19" t="n">
         <v>47463.01</v>
@@ -3970,7 +3894,7 @@
         <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>3344.41</v>
+        <v>890.79</v>
       </c>
       <c r="F2" t="n">
         <v>3390.81</v>
@@ -3993,7 +3917,7 @@
         <v>96</v>
       </c>
       <c r="E3" t="n">
-        <v>761.33</v>
+        <v>789.55</v>
       </c>
       <c r="F3" t="n">
         <v>2217.91</v>
@@ -4016,7 +3940,7 @@
         <v>128</v>
       </c>
       <c r="E4" t="n">
-        <v>1858.18</v>
+        <v>697.3200000000001</v>
       </c>
       <c r="F4" t="n">
         <v>2116.94</v>
@@ -4039,7 +3963,7 @@
         <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>2579.83</v>
+        <v>780.9</v>
       </c>
       <c r="F5" t="n">
         <v>3028.41</v>
@@ -4062,7 +3986,7 @@
         <v>96</v>
       </c>
       <c r="E6" t="n">
-        <v>918.64</v>
+        <v>873.9299999999999</v>
       </c>
       <c r="F6" t="n">
         <v>3646.38</v>
@@ -4085,7 +4009,7 @@
         <v>128</v>
       </c>
       <c r="E7" t="n">
-        <v>1460.43</v>
+        <v>993</v>
       </c>
       <c r="F7" t="n">
         <v>5392.06</v>
@@ -4108,7 +4032,7 @@
         <v>64</v>
       </c>
       <c r="E8" t="n">
-        <v>2150.9</v>
+        <v>1148.64</v>
       </c>
       <c r="F8" t="n">
         <v>5545.6</v>
@@ -4131,7 +4055,7 @@
         <v>96</v>
       </c>
       <c r="E9" t="n">
-        <v>1864.4</v>
+        <v>1450.4</v>
       </c>
       <c r="F9" t="n">
         <v>6464.57</v>
@@ -4154,7 +4078,7 @@
         <v>128</v>
       </c>
       <c r="E10" t="n">
-        <v>3227.19</v>
+        <v>1641.83</v>
       </c>
       <c r="F10" t="n">
         <v>6923.06</v>
@@ -4177,7 +4101,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>2639.31</v>
+        <v>1903.52</v>
       </c>
       <c r="F11" t="n">
         <v>10277.51</v>
@@ -4200,7 +4124,7 @@
         <v>96</v>
       </c>
       <c r="E12" t="n">
-        <v>4368.95</v>
+        <v>2588.55</v>
       </c>
       <c r="F12" t="n">
         <v>13703.4</v>
@@ -4223,7 +4147,7 @@
         <v>128</v>
       </c>
       <c r="E13" t="n">
-        <v>4023.48</v>
+        <v>3006.49</v>
       </c>
       <c r="F13" t="n">
         <v>12347.56</v>
@@ -4246,7 +4170,7 @@
         <v>64</v>
       </c>
       <c r="E14" t="n">
-        <v>5542.54</v>
+        <v>3669.96</v>
       </c>
       <c r="F14" t="n">
         <v>21136.64</v>
@@ -4269,7 +4193,7 @@
         <v>96</v>
       </c>
       <c r="E15" t="n">
-        <v>4988.72</v>
+        <v>4958.58</v>
       </c>
       <c r="F15" t="n">
         <v>24296.36</v>
@@ -4292,7 +4216,7 @@
         <v>128</v>
       </c>
       <c r="E16" t="n">
-        <v>8528.6</v>
+        <v>5790.06</v>
       </c>
       <c r="F16" t="n">
         <v>26818.41</v>
@@ -4315,7 +4239,7 @@
         <v>64</v>
       </c>
       <c r="E17" t="n">
-        <v>6968.38</v>
+        <v>6974.06</v>
       </c>
       <c r="F17" t="n">
         <v>39000.05</v>
@@ -4338,7 +4262,7 @@
         <v>96</v>
       </c>
       <c r="E18" t="n">
-        <v>10754.21</v>
+        <v>9530.940000000001</v>
       </c>
       <c r="F18" t="n">
         <v>47868.25</v>
@@ -4361,7 +4285,7 @@
         <v>128</v>
       </c>
       <c r="E19" t="n">
-        <v>14848.06</v>
+        <v>11313.16</v>
       </c>
       <c r="F19" t="n">
         <v>50569.25</v>
@@ -4440,7 +4364,7 @@
         <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>776.9299999999999</v>
+        <v>795.13</v>
       </c>
       <c r="F2" t="n">
         <v>2017.5</v>
@@ -4463,7 +4387,7 @@
         <v>96</v>
       </c>
       <c r="E3" t="n">
-        <v>1090.2</v>
+        <v>681.6900000000001</v>
       </c>
       <c r="F3" t="n">
         <v>2872.7</v>
@@ -4486,7 +4410,7 @@
         <v>128</v>
       </c>
       <c r="E4" t="n">
-        <v>2662.39</v>
+        <v>776.63</v>
       </c>
       <c r="F4" t="n">
         <v>4052.29</v>
@@ -4509,7 +4433,7 @@
         <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>1104.28</v>
+        <v>822.91</v>
       </c>
       <c r="F5" t="n">
         <v>4348.52</v>
@@ -4532,7 +4456,7 @@
         <v>96</v>
       </c>
       <c r="E6" t="n">
-        <v>1002.03</v>
+        <v>1030.98</v>
       </c>
       <c r="F6" t="n">
         <v>3455.69</v>
@@ -4555,7 +4479,7 @@
         <v>128</v>
       </c>
       <c r="E7" t="n">
-        <v>2020.52</v>
+        <v>1171.95</v>
       </c>
       <c r="F7" t="n">
         <v>3595.96</v>
@@ -4578,7 +4502,7 @@
         <v>64</v>
       </c>
       <c r="E8" t="n">
-        <v>2535.35</v>
+        <v>1288.61</v>
       </c>
       <c r="F8" t="n">
         <v>5379.69</v>
@@ -4601,7 +4525,7 @@
         <v>96</v>
       </c>
       <c r="E9" t="n">
-        <v>2914</v>
+        <v>1741.67</v>
       </c>
       <c r="F9" t="n">
         <v>7779.9</v>
@@ -4624,7 +4548,7 @@
         <v>128</v>
       </c>
       <c r="E10" t="n">
-        <v>2441.23</v>
+        <v>2024.96</v>
       </c>
       <c r="F10" t="n">
         <v>7847.6</v>
@@ -4647,7 +4571,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>3821.21</v>
+        <v>2315.46</v>
       </c>
       <c r="F11" t="n">
         <v>9954.42</v>
@@ -4670,7 +4594,7 @@
         <v>96</v>
       </c>
       <c r="E12" t="n">
-        <v>3197.43</v>
+        <v>3199.57</v>
       </c>
       <c r="F12" t="n">
         <v>12435.05</v>
@@ -4693,7 +4617,7 @@
         <v>128</v>
       </c>
       <c r="E13" t="n">
-        <v>3892.18</v>
+        <v>3884.27</v>
       </c>
       <c r="F13" t="n">
         <v>13357.96</v>
@@ -4716,7 +4640,7 @@
         <v>64</v>
       </c>
       <c r="E14" t="n">
-        <v>6020.07</v>
+        <v>4278.91</v>
       </c>
       <c r="F14" t="n">
         <v>20191.3</v>
@@ -4739,7 +4663,7 @@
         <v>96</v>
       </c>
       <c r="E15" t="n">
-        <v>6984.34</v>
+        <v>6123.5</v>
       </c>
       <c r="F15" t="n">
         <v>28423.92</v>
@@ -4762,7 +4686,7 @@
         <v>128</v>
       </c>
       <c r="E16" t="n">
-        <v>7735.82</v>
+        <v>7488.47</v>
       </c>
       <c r="F16" t="n">
         <v>31275.85</v>
@@ -4785,7 +4709,7 @@
         <v>64</v>
       </c>
       <c r="E17" t="n">
-        <v>8502.34</v>
+        <v>8316.309999999999</v>
       </c>
       <c r="F17" t="n">
         <v>39162.15</v>
@@ -4808,7 +4732,7 @@
         <v>96</v>
       </c>
       <c r="E18" t="n">
-        <v>13508.98</v>
+        <v>12145.49</v>
       </c>
       <c r="F18" t="n">
         <v>50824.24</v>
@@ -4831,7 +4755,7 @@
         <v>128</v>
       </c>
       <c r="E19" t="n">
-        <v>21621.36</v>
+        <v>14743.58</v>
       </c>
       <c r="F19" t="n">
         <v>52540.42</v>
@@ -4910,7 +4834,7 @@
         <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>1402.56</v>
+        <v>711.22</v>
       </c>
       <c r="F2" t="n">
         <v>1556.45</v>
@@ -4933,7 +4857,7 @@
         <v>96</v>
       </c>
       <c r="E3" t="n">
-        <v>2999.91</v>
+        <v>791.17</v>
       </c>
       <c r="F3" t="n">
         <v>4112.12</v>
@@ -4956,7 +4880,7 @@
         <v>128</v>
       </c>
       <c r="E4" t="n">
-        <v>3337.23</v>
+        <v>822.46</v>
       </c>
       <c r="F4" t="n">
         <v>2226.52</v>
@@ -4979,7 +4903,7 @@
         <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>826.14</v>
+        <v>833.5700000000001</v>
       </c>
       <c r="F5" t="n">
         <v>3745.71</v>
@@ -5002,7 +4926,7 @@
         <v>96</v>
       </c>
       <c r="E6" t="n">
-        <v>1475.76</v>
+        <v>1201.13</v>
       </c>
       <c r="F6" t="n">
         <v>3955.53</v>
@@ -5025,7 +4949,7 @@
         <v>128</v>
       </c>
       <c r="E7" t="n">
-        <v>3170.05</v>
+        <v>1372.73</v>
       </c>
       <c r="F7" t="n">
         <v>4154.44</v>
@@ -5048,7 +4972,7 @@
         <v>64</v>
       </c>
       <c r="E8" t="n">
-        <v>2327.41</v>
+        <v>1362.38</v>
       </c>
       <c r="F8" t="n">
         <v>6456.15</v>
@@ -5071,7 +4995,7 @@
         <v>96</v>
       </c>
       <c r="E9" t="n">
-        <v>2767.62</v>
+        <v>2127.18</v>
       </c>
       <c r="F9" t="n">
         <v>8716.15</v>
@@ -5094,7 +5018,7 @@
         <v>128</v>
       </c>
       <c r="E10" t="n">
-        <v>3817.83</v>
+        <v>2510.21</v>
       </c>
       <c r="F10" t="n">
         <v>10197.14</v>
@@ -5117,7 +5041,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>4333.85</v>
+        <v>2581.64</v>
       </c>
       <c r="F11" t="n">
         <v>11837.2</v>
@@ -5140,7 +5064,7 @@
         <v>96</v>
       </c>
       <c r="E12" t="n">
-        <v>4617.37</v>
+        <v>3987.06</v>
       </c>
       <c r="F12" t="n">
         <v>14022.79</v>
@@ -5163,7 +5087,7 @@
         <v>128</v>
       </c>
       <c r="E13" t="n">
-        <v>6816.27</v>
+        <v>4762.65</v>
       </c>
       <c r="F13" t="n">
         <v>15089.05</v>
@@ -5186,7 +5110,7 @@
         <v>64</v>
       </c>
       <c r="E14" t="n">
-        <v>5415.95</v>
+        <v>4921.9</v>
       </c>
       <c r="F14" t="n">
         <v>20741.97</v>
@@ -5209,7 +5133,7 @@
         <v>96</v>
       </c>
       <c r="E15" t="n">
-        <v>7726.97</v>
+        <v>7666.54</v>
       </c>
       <c r="F15" t="n">
         <v>26712.24</v>
@@ -5232,7 +5156,7 @@
         <v>128</v>
       </c>
       <c r="E16" t="n">
-        <v>9339.32</v>
+        <v>9195.01</v>
       </c>
       <c r="F16" t="n">
         <v>29698.14</v>
@@ -5255,7 +5179,7 @@
         <v>64</v>
       </c>
       <c r="E17" t="n">
-        <v>12194.95</v>
+        <v>9490.950000000001</v>
       </c>
       <c r="F17" t="n">
         <v>40927.73</v>
@@ -5278,7 +5202,7 @@
         <v>96</v>
       </c>
       <c r="E18" t="n">
-        <v>15741.57</v>
+        <v>15172.31</v>
       </c>
       <c r="F18" t="n">
         <v>52674.13</v>
@@ -5301,7 +5225,7 @@
         <v>128</v>
       </c>
       <c r="E19" t="n">
-        <v>19147.96</v>
+        <v>18118.62</v>
       </c>
       <c r="F19" t="n">
         <v>57014.16</v>
@@ -5380,7 +5304,7 @@
         <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>767.53</v>
+        <v>752.1799999999999</v>
       </c>
       <c r="F2" t="n">
         <v>1647.91</v>
@@ -5403,7 +5327,7 @@
         <v>96</v>
       </c>
       <c r="E3" t="n">
-        <v>1267.62</v>
+        <v>1097.23</v>
       </c>
       <c r="F3" t="n">
         <v>3794.94</v>
@@ -5426,7 +5350,7 @@
         <v>128</v>
       </c>
       <c r="E4" t="n">
-        <v>2947.88</v>
+        <v>1296.43</v>
       </c>
       <c r="F4" t="n">
         <v>3539.34</v>
@@ -5449,7 +5373,7 @@
         <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>2007.72</v>
+        <v>1153.79</v>
       </c>
       <c r="F5" t="n">
         <v>2848.81</v>
@@ -5472,7 +5396,7 @@
         <v>96</v>
       </c>
       <c r="E6" t="n">
-        <v>3923.46</v>
+        <v>1914.49</v>
       </c>
       <c r="F6" t="n">
         <v>7033.73</v>
@@ -5495,7 +5419,7 @@
         <v>128</v>
       </c>
       <c r="E7" t="n">
-        <v>2344.77</v>
+        <v>2316.12</v>
       </c>
       <c r="F7" t="n">
         <v>5803.22</v>
@@ -5518,7 +5442,7 @@
         <v>64</v>
       </c>
       <c r="E8" t="n">
-        <v>3895.43</v>
+        <v>2067.87</v>
       </c>
       <c r="F8" t="n">
         <v>5851.07</v>
@@ -5541,7 +5465,7 @@
         <v>96</v>
       </c>
       <c r="E9" t="n">
-        <v>5811.38</v>
+        <v>3630.88</v>
       </c>
       <c r="F9" t="n">
         <v>10134.53</v>
@@ -5564,7 +5488,7 @@
         <v>128</v>
       </c>
       <c r="E10" t="n">
-        <v>5163.48</v>
+        <v>4410.01</v>
       </c>
       <c r="F10" t="n">
         <v>11394.02</v>
@@ -5587,7 +5511,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>4065.6</v>
+        <v>3890.51</v>
       </c>
       <c r="F11" t="n">
         <v>11914.96</v>
@@ -5610,7 +5534,7 @@
         <v>96</v>
       </c>
       <c r="E12" t="n">
-        <v>7663.95</v>
+        <v>7025.54</v>
       </c>
       <c r="F12" t="n">
         <v>20521.36</v>
@@ -5633,7 +5557,7 @@
         <v>128</v>
       </c>
       <c r="E13" t="n">
-        <v>9843.190000000001</v>
+        <v>8742.719999999999</v>
       </c>
       <c r="F13" t="n">
         <v>22874.81</v>
@@ -5656,7 +5580,7 @@
         <v>64</v>
       </c>
       <c r="E14" t="n">
-        <v>10004</v>
+        <v>7466.45</v>
       </c>
       <c r="F14" t="n">
         <v>23111.78</v>
@@ -5679,7 +5603,7 @@
         <v>96</v>
       </c>
       <c r="E15" t="n">
-        <v>14632.24</v>
+        <v>13777.46</v>
       </c>
       <c r="F15" t="n">
         <v>40878.2</v>
@@ -5702,7 +5626,7 @@
         <v>128</v>
       </c>
       <c r="E16" t="n">
-        <v>19054.99</v>
+        <v>17117.64</v>
       </c>
       <c r="F16" t="n">
         <v>45579.83</v>
@@ -5725,7 +5649,7 @@
         <v>64</v>
       </c>
       <c r="E17" t="n">
-        <v>15776.03</v>
+        <v>14810.15</v>
       </c>
       <c r="F17" t="n">
         <v>43499.18</v>
@@ -5747,9 +5671,7 @@
       <c r="D18" t="n">
         <v>96</v>
       </c>
-      <c r="E18" t="n">
-        <v>27986.12</v>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
         <v>91230.13</v>
       </c>
@@ -5770,9 +5692,7 @@
       <c r="D19" t="n">
         <v>128</v>
       </c>
-      <c r="E19" t="n">
-        <v>34810.1</v>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
         <v>99101.53999999999</v>
       </c>
